--- a/LOI/COI/COI-all-sorted.xlsx
+++ b/LOI/COI/COI-all-sorted.xlsx
@@ -4,20 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Carlos" sheetId="2" r:id="rId2"/>
+    <sheet name="Full list" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
+    <sheet name="Carlos" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="coi_maltzahn" localSheetId="1">Carlos!$A$1:$D$55</definedName>
+    <definedName name="coi_maltzahn" localSheetId="9">Carlos!$A$1:$D$55</definedName>
     <definedName name="coi_maltzahn" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$A:$C</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="927">
   <si>
     <t xml:space="preserve"> UCSD</t>
   </si>
@@ -1629,13 +1637,1207 @@
   </si>
   <si>
     <t>Buck</t>
+  </si>
+  <si>
+    <t>Andrea Arpaci-Dusseau</t>
+  </si>
+  <si>
+    <t>Remzi Arpaci-Dusseau</t>
+  </si>
+  <si>
+    <t>Roselyne Barreto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Chicago</t>
+  </si>
+  <si>
+    <t>John Bent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMC Corporation</t>
+  </si>
+  <si>
+    <t>Michael Booth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oracle</t>
+  </si>
+  <si>
+    <t>Franck Cappello</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argonne National Laboratory</t>
+  </si>
+  <si>
+    <t>Jacqueline Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sandia National Laboratories</t>
+  </si>
+  <si>
+    <t>Julian Cummings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Jai Dayal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia Institute of Technologies</t>
+  </si>
+  <si>
+    <t>Ciprian Docan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rutgers</t>
+  </si>
+  <si>
+    <t>Stephane Ethier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Princenton Univeristy</t>
+  </si>
+  <si>
+    <t>Ada Gavrilovska</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>Garth Gibson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Ray Grout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Renewal Energy Laboratory</t>
+  </si>
+  <si>
+    <t>Gregory Jean-Baptiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florida International University</t>
+  </si>
+  <si>
+    <t>Ivo Jimenez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of California Santa Cruz</t>
+  </si>
+  <si>
+    <t>Scott Klasky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oak Ridge National Laboratory</t>
+  </si>
+  <si>
+    <t>Todd Kordenbrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hewlett-Packard</t>
+  </si>
+  <si>
+    <t>Seung-Hoe Ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York University</t>
+  </si>
+  <si>
+    <t>Qing Liu</t>
+  </si>
+  <si>
+    <t>Mike Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Alamos National Laboratory</t>
+  </si>
+  <si>
+    <t>Jack Lange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>Jeremy Logan</t>
+  </si>
+  <si>
+    <t>Xiaosong Ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Carolina State University</t>
+  </si>
+  <si>
+    <t>Carlos Maltzahn</t>
+  </si>
+  <si>
+    <t>Kathryn Mohror</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawrence Livermore National Laboratory</t>
+  </si>
+  <si>
+    <t>Adam Moody</t>
+  </si>
+  <si>
+    <t>Ron Oldfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sandia National Laboratoriey</t>
+  </si>
+  <si>
+    <t>Manish Parashar</t>
+  </si>
+  <si>
+    <t>Tom Peterka</t>
+  </si>
+  <si>
+    <t>Norbert Podhorzski</t>
+  </si>
+  <si>
+    <t>Milo Polte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WibiData</t>
+  </si>
+  <si>
+    <t>Charles Reiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of California Berkeley</t>
+  </si>
+  <si>
+    <t>Karsten Schwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PhD advisor</t>
+  </si>
+  <si>
+    <t>Arie Shoshani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawrence Berkeley National Laboratory</t>
+  </si>
+  <si>
+    <t>Alexander Sim</t>
+  </si>
+  <si>
+    <t>Gregory Sjaardema</t>
+  </si>
+  <si>
+    <t>Sagar Thapaliya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Birmingham</t>
+  </si>
+  <si>
+    <t>Yuan Tian</t>
+  </si>
+  <si>
+    <t>Yandong Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auburn University</t>
+  </si>
+  <si>
+    <t>Meghan Wingate McClelland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xyratex</t>
+  </si>
+  <si>
+    <t>Weikuan Yu</t>
+  </si>
+  <si>
+    <t>Fang Zheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Ross </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil Carns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dries Kimpe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reddy Narasimha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiying Shen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Brooks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darrell Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Curry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Skjellum </t>
+  </si>
+  <si>
+    <t>Argonne National Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-author, collaborator</t>
+  </si>
+  <si>
+    <t>Clemson University</t>
+  </si>
+  <si>
+    <t>University of California, Santa Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-editor</t>
+  </si>
+  <si>
+    <t>Sandia National Laboratories</t>
+  </si>
+  <si>
+    <t>University of Alabama Birmingham, Auburn</t>
+  </si>
+  <si>
+    <t>co-author</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-worker</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Tennessee</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlemyer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Alamos National Laboratory </t>
+  </si>
+  <si>
+    <t>Sarp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oak Ridge National Laboratory </t>
+  </si>
+  <si>
+    <t>Co-author, Collaborator</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brim </t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah Nam </t>
+  </si>
+  <si>
+    <t>Co-author</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergara Larrea </t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverman </t>
+  </si>
+  <si>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gupta </t>
+  </si>
+  <si>
+    <t>Devesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiwari </t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simmons </t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill </t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miller </t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuller </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redhat  </t>
+  </si>
+  <si>
+    <t>Raghul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunasekaran </t>
+  </si>
+  <si>
+    <t>Youngjae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogers </t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dillow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google </t>
+  </si>
+  <si>
+    <t>Galen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipman </t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. Bland </t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxwell </t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redhat </t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atchley </t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caldwell </t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of California </t>
+  </si>
+  <si>
+    <t>Advisor, Co-author, collaborator</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinquini </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOAA </t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crichton </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NASA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattmann </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jet Propulsion Laboratory </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harney </t>
+  </si>
+  <si>
+    <t>Rachana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananthakrishnan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Chicago </t>
+  </si>
+  <si>
+    <t>Neill</t>
+  </si>
+  <si>
+    <t>Sebastien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denvil </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Institut Pierre Simon Laplace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan </t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goddard Space Flight Center </t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Bell </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawrence Livermore National Laboratory </t>
+  </si>
+  <si>
+    <t>Co-author, collaborator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutriaux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lawrence Livermore National Laboratory </t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drach </t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williams </t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kershaw </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STFC Rutherford Appleton Laboratory, United Kingdom </t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascoe </t>
+  </si>
+  <si>
+    <t>Estanislao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German Climate Computing Center  (DKRZ), Germany</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiore </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Euro-Mediterranean Center on Climate Change</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweitzer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pacific Marine Environmental Laboratory </t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Peer-Timo</t>
+  </si>
+  <si>
+    <t>Wes</t>
+  </si>
+  <si>
+    <t>LBL</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Jong</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Klasky</t>
+  </si>
+  <si>
+    <t>Seung-Hoe</t>
+  </si>
+  <si>
+    <t>Berk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geveci </t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>University of Tennessee</t>
+  </si>
+  <si>
+    <t>Lysecky</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Valerio</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Qing</t>
+  </si>
+  <si>
+    <t>Tchoua</t>
+  </si>
+  <si>
+    <t>Roselyne</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Rezmi Arpaci-Dusseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Wisconsin-Madison</t>
+  </si>
+  <si>
+    <t>Purushotham V. Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Alabama at Birmingham</t>
+  </si>
+  <si>
+    <t>Brian Barrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazon</t>
+  </si>
+  <si>
+    <t>Richard Barrett</t>
+  </si>
+  <si>
+    <t>James Brandt</t>
+  </si>
+  <si>
+    <t>Ron Brightwell</t>
+  </si>
+  <si>
+    <t>Phil Carns</t>
+  </si>
+  <si>
+    <t>Geoff Danielson</t>
+  </si>
+  <si>
+    <t>Nathan DeBardeleben</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Alamos National Laboratories</t>
+  </si>
+  <si>
+    <t>Nathan Fabian</t>
+  </si>
+  <si>
+    <t>Kurt Ferreira</t>
+  </si>
+  <si>
+    <t>Jill Gemmill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clemson University</t>
+  </si>
+  <si>
+    <t>Ann Gentile</t>
+  </si>
+  <si>
+    <t>Kevin Harms</t>
+  </si>
+  <si>
+    <t>Jay Harris</t>
+  </si>
+  <si>
+    <t>Scott Hemmert</t>
+  </si>
+  <si>
+    <t>Suzanne Kelly</t>
+  </si>
+  <si>
+    <t>Dries Kimpe</t>
+  </si>
+  <si>
+    <t>Ruth Klundt</t>
+  </si>
+  <si>
+    <t>Thomas Kroeger</t>
+  </si>
+  <si>
+    <t>James Laros III</t>
+  </si>
+  <si>
+    <t>Vitus Leung</t>
+  </si>
+  <si>
+    <t>Michael Levenhagen</t>
+  </si>
+  <si>
+    <t>Gerald Lofstead</t>
+  </si>
+  <si>
+    <t>Darrell Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of California-Santa Cruz</t>
+  </si>
+  <si>
+    <t>Ethan Miller</t>
+  </si>
+  <si>
+    <t>Kenneth Moreland</t>
+  </si>
+  <si>
+    <t>Kevin Pedretti</t>
+  </si>
+  <si>
+    <t>David R. Resnick</t>
+  </si>
+  <si>
+    <t>Robert Ricci</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Utah</t>
+  </si>
+  <si>
+    <t>Arun Rodrigues</t>
+  </si>
+  <si>
+    <t>Robert Ross</t>
+  </si>
+  <si>
+    <t>Haiying Shen</t>
+  </si>
+  <si>
+    <t>Anthony Skjellum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> co-author, collaborator, advisor</t>
+  </si>
+  <si>
+    <t>Weibin Sun</t>
+  </si>
+  <si>
+    <t>Zhiwei Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Direct Networks</t>
+  </si>
+  <si>
+    <t>David Thompson</t>
+  </si>
+  <si>
+    <t>Tom Tucker</t>
+  </si>
+  <si>
+    <t>John Van Dyke</t>
+  </si>
+  <si>
+    <t>Courtenay Vaughan</t>
+  </si>
+  <si>
+    <t>Lee Ward</t>
+  </si>
+  <si>
+    <t>Kyle Wheeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Micron Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allendes, Alejandro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andriamaro, Gaelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrenechea, Gabriel R. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davydov, Oleg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guzman, Johnny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karniadakis, George </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma, Xinhui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mihai, L. Angela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rankin, Richard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayas, Francisco-Javier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajid, Hafiz Abdul </t>
+  </si>
+  <si>
+    <t>Strathclyde University, UK</t>
+  </si>
+  <si>
+    <t>Giessen University, Germany</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>Abertay University, UK</t>
+  </si>
+  <si>
+    <t>Cardiff University, UK</t>
+  </si>
+  <si>
+    <t>Rice University, US</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>COMSATS Institute of Technology, Pakistan</t>
+  </si>
+  <si>
+    <t>Universidad Tecnica Federico Santa Maria, Chile</t>
+  </si>
+  <si>
+    <t>Craig, Alan W.</t>
+  </si>
+  <si>
+    <t>European Commission Brussels</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>advisor</t>
+  </si>
+  <si>
+    <t>Oden, John T.</t>
+  </si>
+  <si>
+    <t>University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>Allendes</t>
+  </si>
+  <si>
+    <t>Andriamaro</t>
+  </si>
+  <si>
+    <t>Barrenechea</t>
+  </si>
+  <si>
+    <t>Davydov</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Karniadakis</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Rankin</t>
+  </si>
+  <si>
+    <t>Sayas</t>
+  </si>
+  <si>
+    <t>Wajid</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Oden</t>
+  </si>
+  <si>
+    <t>Barreto</t>
+  </si>
+  <si>
+    <t>Booth</t>
+  </si>
+  <si>
+    <t>Docan</t>
+  </si>
+  <si>
+    <t>Grout</t>
+  </si>
+  <si>
+    <t>Podhorzski</t>
+  </si>
+  <si>
+    <t>Polte</t>
+  </si>
+  <si>
+    <t>Reiss</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>Wingate McClelland</t>
+  </si>
+  <si>
+    <t>V. Bangalore</t>
+  </si>
+  <si>
+    <t>Laros III</t>
+  </si>
+  <si>
+    <t>Lofstead</t>
+  </si>
+  <si>
+    <t>R. Resnick</t>
+  </si>
+  <si>
+    <t>Van Dyke</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Co-Author</t>
+  </si>
+  <si>
+    <t>collaborator</t>
+  </si>
+  <si>
+    <t>Emory</t>
+  </si>
+  <si>
+    <t>U. Texas</t>
+  </si>
+  <si>
+    <t>Pirkelbauer</t>
+  </si>
+  <si>
+    <t>Rodero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. </t>
+  </si>
+  <si>
+    <t>Kocoloski</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. </t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. </t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>U. Va.</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. L. </t>
+  </si>
+  <si>
+    <t>TX.</t>
+  </si>
+  <si>
+    <t>D. K.</t>
+  </si>
+  <si>
+    <t>Illinios</t>
+  </si>
+  <si>
+    <t>NYU</t>
+  </si>
+  <si>
+    <t>U. Dell</t>
+  </si>
+  <si>
+    <t>K. J.</t>
+  </si>
+  <si>
+    <t>Co-Editor</t>
+  </si>
+  <si>
+    <t>Co-Worker</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Alabama, Birmingham</t>
+  </si>
+  <si>
+    <t>Narasimha</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Brim</t>
+  </si>
+  <si>
+    <t>Ah Nam</t>
+  </si>
+  <si>
+    <t>Vergara Larrea</t>
+  </si>
+  <si>
+    <t>Leverman</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Tiwari</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>Ezell</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Gunasekaran</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Dillow</t>
+  </si>
+  <si>
+    <t>S. Bland</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Atchley</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Cinquini</t>
+  </si>
+  <si>
+    <t>Crichton</t>
+  </si>
+  <si>
+    <t>Mattmann</t>
+  </si>
+  <si>
+    <t>Harney</t>
+  </si>
+  <si>
+    <t>Ananthakrishnan</t>
+  </si>
+  <si>
+    <t>Denvil</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Pobre</t>
+  </si>
+  <si>
+    <t>M. Bell</t>
+  </si>
+  <si>
+    <t>Doutriaux</t>
+  </si>
+  <si>
+    <t>Drach</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Kershaw</t>
+  </si>
+  <si>
+    <t>Pascoe</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Fiore</t>
+  </si>
+  <si>
+    <t>Schweitzer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,6 +2898,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1727,7 +2947,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1745,6 +2965,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1819,7 +3042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1854,7 +3077,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2065,13 +3288,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView topLeftCell="A285" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
@@ -5458,18 +6682,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D55"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6241,6 +7465,1126 @@
       </c>
       <c r="D55" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>862</v>
+      </c>
+      <c r="D68" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>855</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>863</v>
+      </c>
+      <c r="D72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>862</v>
+      </c>
+      <c r="D79" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>328</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>864</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>865</v>
+      </c>
+      <c r="B88" t="s">
+        <v>866</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>867</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>868</v>
+      </c>
+      <c r="D89" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>402</v>
+      </c>
+      <c r="B90" t="s">
+        <v>869</v>
+      </c>
+      <c r="C90" t="s">
+        <v>868</v>
+      </c>
+      <c r="D90" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>870</v>
+      </c>
+      <c r="B91" t="s">
+        <v>871</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>401</v>
+      </c>
+      <c r="B92" t="s">
+        <v>872</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>873</v>
+      </c>
+      <c r="B93" t="s">
+        <v>869</v>
+      </c>
+      <c r="C93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>387</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>874</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>863</v>
+      </c>
+      <c r="D95" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>875</v>
+      </c>
+      <c r="D99" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>876</v>
+      </c>
+      <c r="D101" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" t="s">
+        <v>487</v>
+      </c>
+      <c r="D106" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>855</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>876</v>
+      </c>
+      <c r="D109" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>877</v>
+      </c>
+      <c r="C110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D110" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>878</v>
+      </c>
+      <c r="D113" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" t="s">
+        <v>879</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>491</v>
+      </c>
+      <c r="D117" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>155</v>
+      </c>
+      <c r="D119" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" t="s">
+        <v>487</v>
+      </c>
+      <c r="D122" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>880</v>
+      </c>
+      <c r="D125" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>881</v>
+      </c>
+      <c r="D128" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>271</v>
+      </c>
+      <c r="B129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>249</v>
+      </c>
+      <c r="D131" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" t="s">
+        <v>882</v>
+      </c>
+      <c r="D132" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" t="s">
+        <v>883</v>
+      </c>
+      <c r="C134" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>358</v>
+      </c>
+      <c r="D135" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -6252,4 +8596,7297 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E231"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220:E231"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1" t="str">
+        <f>A1&amp;", "&amp;B1&amp;", "&amp;C1</f>
+        <v>Craig, A., European Commission Brussels</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="0">A2&amp;", "&amp;B2&amp;", "&amp;C2</f>
+        <v>Grunwald, D.,  UCSC</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>Lysecky, R., University of Arizona</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Oden, J., University of Texas at Austin</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Schwan, K.,  Georgia Institute of Technology</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Wu, F.,  University of California </v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" t="s">
+        <v>886</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tan, W.,  UCSC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Achlioptas, D.,  UCSC</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9" t="s">
+        <v>860</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ah Nam, H.,  Los Alamos National Laboratory </v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Ames, S.,  LLNL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" t="s">
+        <v>860</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ananthakrishnan, R.,  University of Chicago </v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Arpaci-Dusseau, A.,  UW Madison</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Arpaci-Dusseau, R.,  UW Madison</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" t="s">
+        <v>908</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D14" t="s">
+        <v>860</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Atchley, S.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D15" t="s">
+        <v>860</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Barrenechea, G., Strathclyde University, UK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>844</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D16" t="s">
+        <v>860</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Barreto, R.,  University of Chicago</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>759</v>
+      </c>
+      <c r="D17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Barrett, B.,  Amazon</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" t="s">
+        <v>860</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Barrett, R.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" t="s">
+        <v>860</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Bent, J.,  EMC Corporation</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" t="s">
+        <v>860</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhagwan, V.,  Yahoo!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>845</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" t="s">
+        <v>860</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Booth, M.,  Oracle</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D22" t="s">
+        <v>860</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Brandt, J.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" t="s">
+        <v>860</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Brandt, S.,  UCSC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D24" t="s">
+        <v>860</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Brightwell, R.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" t="s">
+        <v>893</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D25" t="s">
+        <v>860</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Brim, M.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" t="s">
+        <v>860</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Buck, J.,  Context Relevant</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" t="s">
+        <v>909</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D27" t="s">
+        <v>860</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Caldwell, B.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>612</v>
+      </c>
+      <c r="D28" t="s">
+        <v>860</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Carns, P., Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" t="s">
+        <v>860</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Carothers, C.,  Rensselaer Polytechnic Institute</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>540</v>
+      </c>
+      <c r="D30" t="s">
+        <v>860</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Chen, J.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" t="s">
+        <v>860</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Cope, J.,  DDN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" t="s">
+        <v>911</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D32" t="s">
+        <v>860</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Crichton, D.,  NASA </v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D33" t="s">
+        <v>860</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Cummings, J.,  California Institute of Technology</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>835</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>818</v>
+      </c>
+      <c r="D34" t="s">
+        <v>860</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Davydov, O., Giessen University, Germany</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" t="s">
+        <v>915</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D35" t="s">
+        <v>860</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Denvil, S.,  Institut Pierre Simon Laplace </v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" t="s">
+        <v>904</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D36" t="s">
+        <v>860</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Dillow, D.,  Google </v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>546</v>
+      </c>
+      <c r="D37" t="s">
+        <v>860</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Docan, C.,  Rutgers</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" t="s">
+        <v>919</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D38" t="s">
+        <v>860</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Doutriaux, C.,   Lawrence Livermore National Laboratory </v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" t="s">
+        <v>920</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D39" t="s">
+        <v>860</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Drach, R.,  Lawrence Livermore National Laboratory </v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>548</v>
+      </c>
+      <c r="D40" t="s">
+        <v>860</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethier, S.,  Princenton Univeristy</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" t="s">
+        <v>900</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D41" t="s">
+        <v>860</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ezell, M.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>540</v>
+      </c>
+      <c r="D42" t="s">
+        <v>860</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Fabian, N.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>540</v>
+      </c>
+      <c r="D43" t="s">
+        <v>860</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Ferreira, K.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" t="s">
+        <v>925</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D44" t="s">
+        <v>860</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiore, S.,  Euro-Mediterranean Center on Climate Change</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" t="s">
+        <v>901</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D45" t="s">
+        <v>860</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Fuller, D.,  Redhat  </v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D46" t="s">
+        <v>860</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Gavrilovska, A.,  Georgia Institute of Technology</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>770</v>
+      </c>
+      <c r="D47" t="s">
+        <v>860</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Gemmill, J.,  Clemson University</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>540</v>
+      </c>
+      <c r="D48" t="s">
+        <v>860</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Gentile, A.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>552</v>
+      </c>
+      <c r="D49" t="s">
+        <v>860</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Gibson, G.,  Carnegie Mellon University</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>860</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Gokhale, M.,  LLNL</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" t="s">
+        <v>924</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D51" t="s">
+        <v>860</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Gonzalez, E.,  German Climate Computing Center  (DKRZ), Germany</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>500</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" t="s">
+        <v>860</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Grandison, T.,  Proficiency Labs</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>501</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>482</v>
+      </c>
+      <c r="D53" t="s">
+        <v>860</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Grider, G.,  LANL</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>847</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>554</v>
+      </c>
+      <c r="D54" t="s">
+        <v>860</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Grout, R.,  National Renewal Energy Laboratory</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75">
+      <c r="A55" t="s">
+        <v>902</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D55" t="s">
+        <v>860</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Gunasekaran, R.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" t="s">
+        <v>897</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D56" t="s">
+        <v>860</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Gupta, S.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>836</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>819</v>
+      </c>
+      <c r="D57" t="s">
+        <v>860</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Guzman, J., Brown University</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>538</v>
+      </c>
+      <c r="D58" t="s">
+        <v>860</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Harms, K.,  Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" t="s">
+        <v>913</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D59" t="s">
+        <v>860</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Harney, J.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>770</v>
+      </c>
+      <c r="D60" t="s">
+        <v>860</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Harris, J.,  Clemson University</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>503</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" t="s">
+        <v>860</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>He, J.,  UW Madison</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>379</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>540</v>
+      </c>
+      <c r="D62" t="s">
+        <v>860</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Hemmert, S.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75">
+      <c r="A63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D63" t="s">
+        <v>860</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Hill, J.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>505</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" t="s">
+        <v>860</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Ioannidou, K.,  TidalScale</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>506</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>482</v>
+      </c>
+      <c r="D65" t="s">
+        <v>860</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Ionkov, L.,  LANL</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>556</v>
+      </c>
+      <c r="D66" t="s">
+        <v>860</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E129" si="1">A66&amp;", "&amp;B66&amp;", "&amp;C66</f>
+        <v>Jean-Baptiste, G.,  Florida International University</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>479</v>
+      </c>
+      <c r="D67" t="s">
+        <v>860</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>Jhala, A.,  UCSC</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>347</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>558</v>
+      </c>
+      <c r="D68" t="s">
+        <v>860</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>Jimenez, I.,  University of California Santa Cruz</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>730</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>860</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>Jong, C., ORNL</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>837</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>819</v>
+      </c>
+      <c r="D70" t="s">
+        <v>860</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>Karniadakis, G., Brown University</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>508</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>437</v>
+      </c>
+      <c r="D71" t="s">
+        <v>860</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>Kato, S.,  Nagoya University</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>380</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>540</v>
+      </c>
+      <c r="D72" t="s">
+        <v>860</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>Kelly, S.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75">
+      <c r="A73" t="s">
+        <v>922</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D73" t="s">
+        <v>860</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Kershaw, P.,  STFC Rutherford Appleton Laboratory, United Kingdom </v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D74" t="s">
+        <v>860</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Kim, Y.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>381</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>612</v>
+      </c>
+      <c r="D75" t="s">
+        <v>860</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>Kimpe, D., Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>732</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76" t="s">
+        <v>860</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>Klasky, S.,  Oak Ridge National Laboratory</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>540</v>
+      </c>
+      <c r="D77" t="s">
+        <v>860</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>Klundt, R.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>509</v>
+      </c>
+      <c r="B78" t="s">
+        <v>438</v>
+      </c>
+      <c r="C78" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" t="s">
+        <v>860</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>Koziol, Q.,  HDF Group</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>564</v>
+      </c>
+      <c r="D79" t="s">
+        <v>860</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>Ku, S.,  New York University</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>854</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>540</v>
+      </c>
+      <c r="D80" t="s">
+        <v>860</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>Laros III, J.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>540</v>
+      </c>
+      <c r="D81" t="s">
+        <v>860</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>Leung, V.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>384</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>540</v>
+      </c>
+      <c r="D82" t="s">
+        <v>860</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>Levenhagen, M.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" t="s">
+        <v>896</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D83" t="s">
+        <v>860</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Leverman, D.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>510</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>444</v>
+      </c>
+      <c r="D84" t="s">
+        <v>860</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>Levin, G.,  Google</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>480</v>
+      </c>
+      <c r="D85" t="s">
+        <v>860</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>Liu, N.,  ANL</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" t="s">
+        <v>438</v>
+      </c>
+      <c r="C86" t="s">
+        <v>560</v>
+      </c>
+      <c r="D86" t="s">
+        <v>860</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>Liu, Q.,  Oak Ridge National Laboratory</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>855</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>540</v>
+      </c>
+      <c r="D87" t="s">
+        <v>860</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>Lofstead, G.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>855</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>481</v>
+      </c>
+      <c r="D88" t="s">
+        <v>860</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>Lofstead, J.,  SNL</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>736</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>560</v>
+      </c>
+      <c r="D89" t="s">
+        <v>860</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>Logan, J.,  Oak Ridge National Laboratory</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75">
+      <c r="A90" t="s">
+        <v>918</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D90" t="s">
+        <v>860</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">M. Bell, G.,  Lawrence Livermore National Laboratory </v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>511</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" t="s">
+        <v>860</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>Manzanares, A.,  HGST</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>512</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>479</v>
+      </c>
+      <c r="D92" t="s">
+        <v>860</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>Mateas, M.,  UCSC</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75">
+      <c r="A93" t="s">
+        <v>912</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D93" t="s">
+        <v>860</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Mattmann, C.,  Jet Propulsion Laboratory </v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75">
+      <c r="A94" t="s">
+        <v>906</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D94" t="s">
+        <v>860</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Maxwell, D.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>482</v>
+      </c>
+      <c r="D95" t="s">
+        <v>860</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>McCormick, P.,  LANL</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75">
+      <c r="A96" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D96" t="s">
+        <v>860</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Miller, R.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>540</v>
+      </c>
+      <c r="D97" t="s">
+        <v>860</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>Moreland, K.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" t="s">
+        <v>916</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D98" t="s">
+        <v>860</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Morgan, M.,  Institut Pierre Simon Laplace </v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>888</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" t="s">
+        <v>860</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>Narasimha, R., Texas A&amp;M</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>513</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s">
+        <v>433</v>
+      </c>
+      <c r="D100" t="s">
+        <v>860</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>Nassi, I.,  TidalScale</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" t="s">
+        <v>907</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D101" t="s">
+        <v>860</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Nelson, M.,  Redhat </v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>479</v>
+      </c>
+      <c r="D102" t="s">
+        <v>860</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>Obraczka, K.,  UCSC</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75">
+      <c r="A103" t="s">
+        <v>892</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D103" t="s">
+        <v>860</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Oral, S.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>546</v>
+      </c>
+      <c r="D104" t="s">
+        <v>860</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>Parashar, M.,  Rutgers</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75">
+      <c r="A105" t="s">
+        <v>923</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D105" t="s">
+        <v>860</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Pascoe, S.,  STFC Rutherford Appleton Laboratory, United Kingdom </v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>387</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>540</v>
+      </c>
+      <c r="D106" t="s">
+        <v>860</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedretti, K.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75">
+      <c r="A107" t="s">
+        <v>917</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D107" t="s">
+        <v>860</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Pobre, Z.,  Goddard Space Flight Center </v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>848</v>
+      </c>
+      <c r="B108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" t="s">
+        <v>560</v>
+      </c>
+      <c r="D108" t="s">
+        <v>860</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>Podhorzski, N.,  Oak Ridge National Laboratory</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>849</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>583</v>
+      </c>
+      <c r="D109" t="s">
+        <v>860</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>Polte, M.,  WibiData</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>515</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" t="s">
+        <v>860</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>Polyzotis, N.,  Google</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>516</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>461</v>
+      </c>
+      <c r="D111" t="s">
+        <v>860</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>Pye, I.,  Cloud Helix</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>856</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>540</v>
+      </c>
+      <c r="D112" t="s">
+        <v>860</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>R. Resnick, D.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>850</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>585</v>
+      </c>
+      <c r="D113" t="s">
+        <v>860</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>Reiss, C.,  University of California Berkeley</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>390</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>790</v>
+      </c>
+      <c r="D114" t="s">
+        <v>860</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>Ricci, R.,  University of Utah</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>392</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>540</v>
+      </c>
+      <c r="D115" t="s">
+        <v>860</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>Rodrigues, A.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75">
+      <c r="A116" t="s">
+        <v>903</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D116" t="s">
+        <v>860</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Rogers, J.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>612</v>
+      </c>
+      <c r="D117" t="s">
+        <v>860</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>Ross, R., Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75">
+      <c r="A118" t="s">
+        <v>905</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D118" t="s">
+        <v>860</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">S. Bland, A.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>840</v>
+      </c>
+      <c r="B119" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" t="s">
+        <v>823</v>
+      </c>
+      <c r="D119" t="s">
+        <v>860</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>Sayas, F., University of Delaware</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75">
+      <c r="A120" t="s">
+        <v>926</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D120" t="s">
+        <v>860</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Schweitzer, R.,  Pacific Marine Environmental Laboratory </v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>614</v>
+      </c>
+      <c r="D121" t="s">
+        <v>860</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>Shen, H., Clemson University</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>517</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" t="s">
+        <v>482</v>
+      </c>
+      <c r="D122" t="s">
+        <v>860</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>Shewmaker, A.,  LANL</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75">
+      <c r="A123" t="s">
+        <v>518</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D123" t="s">
+        <v>860</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Shipman, G.,  Los Alamos National Laboratory </v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>589</v>
+      </c>
+      <c r="D124" t="s">
+        <v>860</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>Shoshani, A.,  Lawrence Berkeley National Laboratory</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>589</v>
+      </c>
+      <c r="D125" t="s">
+        <v>860</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>Sim, A.,  Lawrence Berkeley National Laboratory</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75">
+      <c r="A126" t="s">
+        <v>899</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D126" t="s">
+        <v>860</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Simmons, J.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" t="s">
+        <v>540</v>
+      </c>
+      <c r="D127" t="s">
+        <v>860</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>Sjaardema, G.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>393</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>618</v>
+      </c>
+      <c r="D128" t="s">
+        <v>860</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>Skjellum, A., University of Alabama Birmingham, Auburn</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>519</v>
+      </c>
+      <c r="B129" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" t="s">
+        <v>466</v>
+      </c>
+      <c r="D129" t="s">
+        <v>860</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>Skourtis, D.,  VMWare</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>395</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>444</v>
+      </c>
+      <c r="D130" t="s">
+        <v>860</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" ref="E130:E193" si="2">A130&amp;", "&amp;B130&amp;", "&amp;C130</f>
+        <v>Sun, W.,  Google</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>395</v>
+      </c>
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" t="s">
+        <v>468</v>
+      </c>
+      <c r="D131" t="s">
+        <v>860</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="2"/>
+        <v>Sun, X.,  Illinois Institute of Technology</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>395</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>798</v>
+      </c>
+      <c r="D132" t="s">
+        <v>860</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="2"/>
+        <v>Sun, Z.,  Data Direct Networks</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>750</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>752</v>
+      </c>
+      <c r="D133" t="s">
+        <v>860</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>Tchoua, R., University of Chicago</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" t="s">
+        <v>540</v>
+      </c>
+      <c r="D134" t="s">
+        <v>860</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>Thompson, D.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>851</v>
+      </c>
+      <c r="B135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" t="s">
+        <v>560</v>
+      </c>
+      <c r="D135" t="s">
+        <v>860</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>Tian, Y.,  Oak Ridge National Laboratory</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75">
+      <c r="A136" t="s">
+        <v>898</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D136" t="s">
+        <v>860</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Tiwari, D.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>521</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>471</v>
+      </c>
+      <c r="D137" t="s">
+        <v>860</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>Torres, A.,  Linden Lab</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>398</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" t="s">
+        <v>540</v>
+      </c>
+      <c r="D138" t="s">
+        <v>860</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>Tucker, T.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>857</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>540</v>
+      </c>
+      <c r="D139" t="s">
+        <v>860</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>Van Dyke, J.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>399</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s">
+        <v>540</v>
+      </c>
+      <c r="D140" t="s">
+        <v>860</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>Vaughan, C.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75">
+      <c r="A141" t="s">
+        <v>895</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D141" t="s">
+        <v>860</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Vergara Larrea, V.,  Oak Ridge National Laboratory </v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" t="s">
+        <v>597</v>
+      </c>
+      <c r="D142" t="s">
+        <v>860</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>Wang, Y.,  Auburn University</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>858</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>540</v>
+      </c>
+      <c r="D143" t="s">
+        <v>860</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>Ward, L.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75">
+      <c r="A144" t="s">
+        <v>522</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D144" t="s">
+        <v>860</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Weil, S.,  Redhat </v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>805</v>
+      </c>
+      <c r="D145" t="s">
+        <v>860</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>Wheeler, K.,  Micron Technologies</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>523</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" t="s">
+        <v>479</v>
+      </c>
+      <c r="D146" t="s">
+        <v>860</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>Whitehead, J.,  UCSC</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" t="s">
+        <v>481</v>
+      </c>
+      <c r="D147" t="s">
+        <v>860</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>Widener, P.,  SNL</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75">
+      <c r="A148" t="s">
+        <v>921</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D148" t="s">
+        <v>860</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Williams, D.,  Lawrence Livermore National Laboratory </v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>852</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>599</v>
+      </c>
+      <c r="D149" t="s">
+        <v>860</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>Wingate McClelland, M.,  Xyratex</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>113</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>597</v>
+      </c>
+      <c r="D150" t="s">
+        <v>860</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>Yu, W.,  Auburn University</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>362</v>
+      </c>
+      <c r="B151" t="s">
+        <v>327</v>
+      </c>
+      <c r="C151" t="s">
+        <v>602</v>
+      </c>
+      <c r="D151" t="s">
+        <v>860</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>Zheng, F.,  IBM</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>385</v>
+      </c>
+      <c r="B152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" t="s">
+        <v>615</v>
+      </c>
+      <c r="D152" t="s">
+        <v>884</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>Long, D., University of California, Santa Cruz</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" t="s">
+        <v>71</v>
+      </c>
+      <c r="D153" t="s">
+        <v>624</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>Agrawal, A., NWU</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D154" t="s">
+        <v>624</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>Ahrens, J., LLNL</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>734</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" t="s">
+        <v>624</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>Berk, G., Kitware</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>728</v>
+      </c>
+      <c r="D156" t="s">
+        <v>624</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>Bethel, W., LBL</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D157" t="s">
+        <v>624</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>Bremer, P., LLNL</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>889</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>614</v>
+      </c>
+      <c r="D158" t="s">
+        <v>624</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>Brooks, R., Clemson University</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75">
+      <c r="A159" t="s">
+        <v>891</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D159" t="s">
+        <v>624</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>Cao, C.,  University of Tennessee</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>341</v>
+      </c>
+      <c r="B160" t="s">
+        <v>327</v>
+      </c>
+      <c r="C160" t="s">
+        <v>538</v>
+      </c>
+      <c r="D160" t="s">
+        <v>624</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>Cappello, F.,  Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75">
+      <c r="A161" t="s">
+        <v>910</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D161" t="s">
+        <v>624</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Cinquini, L.,  NOAA </v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>729</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s">
+        <v>249</v>
+      </c>
+      <c r="D162" t="s">
+        <v>624</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>CS, C., PPPL</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>214</v>
+      </c>
+      <c r="B163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C163" t="s">
+        <v>540</v>
+      </c>
+      <c r="D163" t="s">
+        <v>624</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>Danielson, G.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" t="s">
+        <v>544</v>
+      </c>
+      <c r="D164" t="s">
+        <v>624</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>Dayal, J.,  Georgia Institute of Technologies</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>371</v>
+      </c>
+      <c r="B165" t="s">
+        <v>100</v>
+      </c>
+      <c r="C165" t="s">
+        <v>766</v>
+      </c>
+      <c r="D165" t="s">
+        <v>624</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>DeBardeleben, N.,  Los Alamos National Laboratories</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>254</v>
+      </c>
+      <c r="B166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" t="s">
+        <v>241</v>
+      </c>
+      <c r="D166" t="s">
+        <v>624</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>Hanrahan, P., Stanford</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>255</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>624</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>Hansen, C., Utah</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>104</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>105</v>
+      </c>
+      <c r="D168" t="s">
+        <v>624</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>Hesthaven, J., EPFL</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>504</v>
+      </c>
+      <c r="B169" t="s">
+        <v>100</v>
+      </c>
+      <c r="C169" t="s">
+        <v>482</v>
+      </c>
+      <c r="D169" t="s">
+        <v>624</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>Hjelm, N.,  LANL</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="s">
+        <v>875</v>
+      </c>
+      <c r="D170" t="s">
+        <v>624</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>Humphrey, M., U. Va.</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s">
+        <v>624</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>Johnson, C., Utah</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>876</v>
+      </c>
+      <c r="D172" t="s">
+        <v>624</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>Joy, K., UCD</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" t="s">
+        <v>624</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>Kahn, A., Utah</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>259</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
+      </c>
+      <c r="D174" t="s">
+        <v>624</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>Kolla, H., SNL</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" t="s">
+        <v>562</v>
+      </c>
+      <c r="D175" t="s">
+        <v>624</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>Kordenbrock, T.,  Hewlett-Packard</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>260</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" t="s">
+        <v>261</v>
+      </c>
+      <c r="D176" t="s">
+        <v>624</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>Kritz, A., Lehigh</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>382</v>
+      </c>
+      <c r="B177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" t="s">
+        <v>540</v>
+      </c>
+      <c r="D177" t="s">
+        <v>624</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>Kroeger, T.,  Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" t="s">
+        <v>743</v>
+      </c>
+      <c r="D178" t="s">
+        <v>624</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>Kurc, T., Stony Brook University</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>567</v>
+      </c>
+      <c r="D179" t="s">
+        <v>624</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>Lang, M.,  Los Alamos National Laboratory</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" t="s">
+        <v>569</v>
+      </c>
+      <c r="D180" t="s">
+        <v>624</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>Lange, J.,  University of Pittsburgh</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" t="s">
+        <v>624</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>Liao, W. K., NWU</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" t="s">
+        <v>876</v>
+      </c>
+      <c r="D182" t="s">
+        <v>624</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>Ludaescher, B., UCD</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B183" t="s">
+        <v>877</v>
+      </c>
+      <c r="C183" t="s">
+        <v>876</v>
+      </c>
+      <c r="D183" t="s">
+        <v>624</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>Ma, K. L. , UCD</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>352</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>558</v>
+      </c>
+      <c r="D184" t="s">
+        <v>624</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>Maltzahn, C.,  University of California Santa Cruz</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>288</v>
+      </c>
+      <c r="B185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" t="s">
+        <v>126</v>
+      </c>
+      <c r="D185" t="s">
+        <v>624</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>Meredith, J., ORNL</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>386</v>
+      </c>
+      <c r="B186" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" t="s">
+        <v>784</v>
+      </c>
+      <c r="D186" t="s">
+        <v>624</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>Miller, E.,  University of California-Santa Cruz</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75">
+      <c r="A187" t="s">
+        <v>386</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D187" t="s">
+        <v>624</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>Miller, N.,  Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>575</v>
+      </c>
+      <c r="D188" t="s">
+        <v>624</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>Mohror, K.,  Lawrence Livermore National Laboratory</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>354</v>
+      </c>
+      <c r="B189" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" t="s">
+        <v>575</v>
+      </c>
+      <c r="D189" t="s">
+        <v>624</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>Moody, A.,  Lawrence Livermore National Laboratory</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>86</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>878</v>
+      </c>
+      <c r="D190" t="s">
+        <v>624</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>Moser, R., TX.</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>74</v>
+      </c>
+      <c r="D191" t="s">
+        <v>624</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>Nevins, W., LLNL</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" t="s">
+        <v>578</v>
+      </c>
+      <c r="D192" t="s">
+        <v>624</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>Oldfield, R.,  Sandia National Laboratoriey</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>322</v>
+      </c>
+      <c r="B193" t="s">
+        <v>879</v>
+      </c>
+      <c r="C193" t="s">
+        <v>82</v>
+      </c>
+      <c r="D193" t="s">
+        <v>624</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>Panda, D. K., OSU</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>94</v>
+      </c>
+      <c r="B194" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" t="s">
+        <v>624</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" ref="E194:E225" si="3">A194&amp;", "&amp;B194&amp;", "&amp;C194</f>
+        <v>Papka, M., ANL</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>106</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s">
+        <v>491</v>
+      </c>
+      <c r="D195" t="s">
+        <v>624</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="3"/>
+        <v>Parker, S., U. Col.</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>61</v>
+      </c>
+      <c r="B196" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196" t="s">
+        <v>748</v>
+      </c>
+      <c r="D196" t="s">
+        <v>624</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" si="3"/>
+        <v>Pascucci, V., University of Utah</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>97</v>
+      </c>
+      <c r="B197" t="s">
+        <v>98</v>
+      </c>
+      <c r="C197" t="s">
+        <v>538</v>
+      </c>
+      <c r="D197" t="s">
+        <v>624</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="3"/>
+        <v>Peterka, T.,  Argonne National Laboratory</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>165</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" t="s">
+        <v>155</v>
+      </c>
+      <c r="D198" t="s">
+        <v>624</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="3"/>
+        <v>Pordes, R., Fermilab</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>84</v>
+      </c>
+      <c r="B199" t="s">
+        <v>85</v>
+      </c>
+      <c r="C199" t="s">
+        <v>74</v>
+      </c>
+      <c r="D199" t="s">
+        <v>624</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="3"/>
+        <v>Quinlan, D., LLNL</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>292</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="s">
+        <v>91</v>
+      </c>
+      <c r="D200" t="s">
+        <v>624</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>Rotem, D., LBNL</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>487</v>
+      </c>
+      <c r="D201" t="s">
+        <v>624</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>Saltz, J., Stonybrook SUNY</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>79</v>
+      </c>
+      <c r="B202" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" t="s">
+        <v>624</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>Sanderson, A., Utah</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" t="s">
+        <v>880</v>
+      </c>
+      <c r="D203" t="s">
+        <v>624</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>Seidel, E., Illinios</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75">
+      <c r="A204" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D204" t="s">
+        <v>624</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Settlemyer, B.,  Los Alamos National Laboratory </v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205" t="s">
+        <v>81</v>
+      </c>
+      <c r="C205" t="s">
+        <v>82</v>
+      </c>
+      <c r="D205" t="s">
+        <v>624</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>Shen, H. W., OSU</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>267</v>
+      </c>
+      <c r="B206" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" t="s">
+        <v>268</v>
+      </c>
+      <c r="D206" t="s">
+        <v>624</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>Shephard, M., RPI</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207" t="s">
+        <v>881</v>
+      </c>
+      <c r="D207" t="s">
+        <v>624</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>Silvia, C., NYU</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>271</v>
+      </c>
+      <c r="B208" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" t="s">
+        <v>108</v>
+      </c>
+      <c r="D208" t="s">
+        <v>624</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>Sugiyama, L., MIT</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" t="s">
+        <v>71</v>
+      </c>
+      <c r="D209" t="s">
+        <v>624</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>Taflove, A., NWU</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="s">
+        <v>249</v>
+      </c>
+      <c r="D210" t="s">
+        <v>624</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>Tang, W., PPPL</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>117</v>
+      </c>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" t="s">
+        <v>882</v>
+      </c>
+      <c r="D211" t="s">
+        <v>624</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>Taufer, M., U. Dell</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>356</v>
+      </c>
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>887</v>
+      </c>
+      <c r="D212" t="s">
+        <v>624</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>Thapaliya, S.,  University of Alabama, Birmingham</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>272</v>
+      </c>
+      <c r="B213" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213" t="s">
+        <v>273</v>
+      </c>
+      <c r="D213" t="s">
+        <v>624</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>Tynan, G., UCSD</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>853</v>
+      </c>
+      <c r="B214" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" t="s">
+        <v>757</v>
+      </c>
+      <c r="D214" t="s">
+        <v>624</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>V. Bangalore, P.,  University of Alabama at Birmingham</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" t="s">
+        <v>275</v>
+      </c>
+      <c r="D215" t="s">
+        <v>624</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>Wolf, M., Georgia Tech</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>524</v>
+      </c>
+      <c r="B216" t="s">
+        <v>85</v>
+      </c>
+      <c r="C216" t="s">
+        <v>482</v>
+      </c>
+      <c r="D216" t="s">
+        <v>624</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>Wolpert, D.,  LANL</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>83</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" t="s">
+        <v>482</v>
+      </c>
+      <c r="D217" t="s">
+        <v>624</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>Woodring, J.,  LANL</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>110</v>
+      </c>
+      <c r="B218" t="s">
+        <v>883</v>
+      </c>
+      <c r="C218" t="s">
+        <v>91</v>
+      </c>
+      <c r="D218" t="s">
+        <v>624</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>Wu, K. J., LBNL</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>890</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" t="s">
+        <v>617</v>
+      </c>
+      <c r="D219" t="s">
+        <v>885</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>Curry, M., Sandia National Laboratories</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>832</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" t="s">
+        <v>825</v>
+      </c>
+      <c r="D220" t="s">
+        <v>859</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>Allendes, A., Universidad Tecnica Federico Santa Maria, Chile</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>833</v>
+      </c>
+      <c r="B221" t="s">
+        <v>158</v>
+      </c>
+      <c r="C221" t="s">
+        <v>817</v>
+      </c>
+      <c r="D221" t="s">
+        <v>859</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>Andriamaro, G., Strathclyde University, UK</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>56</v>
+      </c>
+      <c r="B222" t="s">
+        <v>127</v>
+      </c>
+      <c r="C222" t="s">
+        <v>820</v>
+      </c>
+      <c r="D222" t="s">
+        <v>859</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>Ma, X., Abertay University, UK</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>838</v>
+      </c>
+      <c r="B223" t="s">
+        <v>147</v>
+      </c>
+      <c r="C223" t="s">
+        <v>821</v>
+      </c>
+      <c r="D223" t="s">
+        <v>859</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>Mihai, L., Cardiff University, UK</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>839</v>
+      </c>
+      <c r="B224" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" t="s">
+        <v>822</v>
+      </c>
+      <c r="D224" t="s">
+        <v>859</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>Rankin, R., Rice University, US</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>841</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" t="s">
+        <v>824</v>
+      </c>
+      <c r="D225" t="s">
+        <v>859</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>Wajid, H., COMSATS Institute of Technology, Pakistan</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>842</v>
+      </c>
+      <c r="B226" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" t="s">
+        <v>827</v>
+      </c>
+      <c r="D226" t="s">
+        <v>742</v>
+      </c>
+      <c r="E226" t="str">
+        <f>A226&amp;", "&amp;B226&amp;", "&amp;C226</f>
+        <v>Craig, A., European Commission Brussels</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>502</v>
+      </c>
+      <c r="B227" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227" t="s">
+        <v>479</v>
+      </c>
+      <c r="D227" t="s">
+        <v>742</v>
+      </c>
+      <c r="E227" t="str">
+        <f t="shared" ref="E227:E231" si="4">A227&amp;", "&amp;B227&amp;", "&amp;C227</f>
+        <v>Grunwald, D.,  UCSC</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>739</v>
+      </c>
+      <c r="B228" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" t="s">
+        <v>741</v>
+      </c>
+      <c r="D228" t="s">
+        <v>742</v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="4"/>
+        <v>Lysecky, R., University of Arizona</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>843</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="s">
+        <v>831</v>
+      </c>
+      <c r="D229" t="s">
+        <v>742</v>
+      </c>
+      <c r="E229" t="str">
+        <f t="shared" si="4"/>
+        <v>Oden, J., University of Texas at Austin</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>39</v>
+      </c>
+      <c r="B230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" t="s">
+        <v>550</v>
+      </c>
+      <c r="D230" t="s">
+        <v>742</v>
+      </c>
+      <c r="E230" t="str">
+        <f t="shared" si="4"/>
+        <v>Schwan, K.,  Georgia Institute of Technology</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75">
+      <c r="A231" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D231" t="s">
+        <v>742</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Wu, F.,  University of California </v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:I267">
+    <sortCondition ref="D1:D267"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1, LEN(A1) - FIND(", ", A1)-1)</f>
+        <v xml:space="preserve">Alejandro </v>
+      </c>
+      <c r="C1" s="9" t="str">
+        <f>LEFT(A1,FIND(",",A1,1)-1)</f>
+        <v>Allendes</v>
+      </c>
+      <c r="D1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B14" si="0">RIGHT(A2, LEN(A2) - FIND(", ", A2)-1)</f>
+        <v xml:space="preserve">Gaelle </v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f t="shared" ref="C2:C13" si="1">LEFT(A2,FIND(",",A2,1)-1)</f>
+        <v>Andriamaro</v>
+      </c>
+      <c r="D2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Gabriel R. </v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Barrenechea</v>
+      </c>
+      <c r="D3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Oleg </v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Davydov</v>
+      </c>
+      <c r="D4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Johnny </v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Guzman</v>
+      </c>
+      <c r="D5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">George </v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Karniadakis</v>
+      </c>
+      <c r="D6" t="s">
+        <v>819</v>
+      </c>
+      <c r="E6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Xinhui </v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Ma</v>
+      </c>
+      <c r="D7" t="s">
+        <v>820</v>
+      </c>
+      <c r="E7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">L. Angela </v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Mihai</v>
+      </c>
+      <c r="D8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Richard </v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Rankin</v>
+      </c>
+      <c r="D9" t="s">
+        <v>822</v>
+      </c>
+      <c r="E9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>815</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Francisco-Javier </v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Sayas</v>
+      </c>
+      <c r="D10" t="s">
+        <v>823</v>
+      </c>
+      <c r="E10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Hafiz Abdul </v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Wajid</v>
+      </c>
+      <c r="D11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Alan W.</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Craig</v>
+      </c>
+      <c r="D12" t="s">
+        <v>827</v>
+      </c>
+      <c r="E12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>John T.</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Oden</v>
+      </c>
+      <c r="D13" t="s">
+        <v>831</v>
+      </c>
+      <c r="E13" t="s">
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1, LEN(A1) - FIND(" ", A1))</f>
+        <v>Arpaci-Dusseau</v>
+      </c>
+      <c r="C1" t="str">
+        <f>LEFT(A1,FIND(" ",A1,1)-1)</f>
+        <v>Andrea</v>
+      </c>
+      <c r="D1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B43" si="0">RIGHT(A2, LEN(A2) - FIND(" ", A2))</f>
+        <v>Arpaci-Dusseau</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C43" si="1">LEFT(A2,FIND(" ",A2,1)-1)</f>
+        <v>Remzi</v>
+      </c>
+      <c r="D2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Barreto</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>Roselyne</v>
+      </c>
+      <c r="D3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bent</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>John</v>
+      </c>
+      <c r="D4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Booth</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael</v>
+      </c>
+      <c r="D5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Cappello</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Franck</v>
+      </c>
+      <c r="D6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Chen</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacqueline</v>
+      </c>
+      <c r="D7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cummings</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Julian</v>
+      </c>
+      <c r="D8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Dayal</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jai</v>
+      </c>
+      <c r="D9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Docan</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Ciprian</v>
+      </c>
+      <c r="D10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethier</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Stephane</v>
+      </c>
+      <c r="D11" t="s">
+        <v>548</v>
+      </c>
+      <c r="E11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Gavrilovska</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Ada</v>
+      </c>
+      <c r="D12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gibson</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Garth</v>
+      </c>
+      <c r="D13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Grout</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Ray</v>
+      </c>
+      <c r="D14" t="s">
+        <v>554</v>
+      </c>
+      <c r="E14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Jean-Baptiste</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Gregory</v>
+      </c>
+      <c r="D15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jimenez</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ivo</v>
+      </c>
+      <c r="D16" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Klasky</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Scott</v>
+      </c>
+      <c r="D17" t="s">
+        <v>560</v>
+      </c>
+      <c r="E17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kordenbrock</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Todd</v>
+      </c>
+      <c r="D18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ku</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Seung-Hoe</v>
+      </c>
+      <c r="D19" t="s">
+        <v>564</v>
+      </c>
+      <c r="E19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Liu</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Qing</v>
+      </c>
+      <c r="D20" t="s">
+        <v>560</v>
+      </c>
+      <c r="E20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lang</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Mike</v>
+      </c>
+      <c r="D21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Lange</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jack</v>
+      </c>
+      <c r="D22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Logan</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Jeremy</v>
+      </c>
+      <c r="D23" t="s">
+        <v>560</v>
+      </c>
+      <c r="E23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ma</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Xiaosong</v>
+      </c>
+      <c r="D24" t="s">
+        <v>572</v>
+      </c>
+      <c r="E24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>573</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Maltzahn</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Carlos</v>
+      </c>
+      <c r="D25" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>574</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Mohror</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Kathryn</v>
+      </c>
+      <c r="D26" t="s">
+        <v>575</v>
+      </c>
+      <c r="E26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>576</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Moody</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Adam</v>
+      </c>
+      <c r="D27" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>577</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Oldfield</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Ron</v>
+      </c>
+      <c r="D28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>579</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Parashar</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>Manish</v>
+      </c>
+      <c r="D29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>580</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Peterka</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>Tom</v>
+      </c>
+      <c r="D30" t="s">
+        <v>538</v>
+      </c>
+      <c r="E30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>581</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Podhorzski</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>Norbert</v>
+      </c>
+      <c r="D31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Polte</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>Milo</v>
+      </c>
+      <c r="D32" t="s">
+        <v>583</v>
+      </c>
+      <c r="E32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Reiss</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>Charles</v>
+      </c>
+      <c r="D33" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Schwan</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>Karsten</v>
+      </c>
+      <c r="D34" t="s">
+        <v>550</v>
+      </c>
+      <c r="E34" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Shoshani</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Arie</v>
+      </c>
+      <c r="D35" t="s">
+        <v>589</v>
+      </c>
+      <c r="E35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Sim</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Alexander</v>
+      </c>
+      <c r="D36" t="s">
+        <v>589</v>
+      </c>
+      <c r="E36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>591</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Sjaardema</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Gregory</v>
+      </c>
+      <c r="D37" t="s">
+        <v>540</v>
+      </c>
+      <c r="E37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>592</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Thapaliya</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Sagar</v>
+      </c>
+      <c r="D38" t="s">
+        <v>593</v>
+      </c>
+      <c r="E38" t="s">
+        <v>594</v>
+      </c>
+      <c r="F38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>595</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Tian</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Yuan</v>
+      </c>
+      <c r="D39" t="s">
+        <v>560</v>
+      </c>
+      <c r="E39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>596</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Wang</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Yandong</v>
+      </c>
+      <c r="D40" t="s">
+        <v>597</v>
+      </c>
+      <c r="E40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>598</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Wingate McClelland</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>Meghan</v>
+      </c>
+      <c r="D41" t="s">
+        <v>599</v>
+      </c>
+      <c r="E41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>600</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Yu</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Weikuan</v>
+      </c>
+      <c r="D42" t="s">
+        <v>597</v>
+      </c>
+      <c r="E42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>601</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Zheng</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Fang</v>
+      </c>
+      <c r="D43" t="s">
+        <v>602</v>
+      </c>
+      <c r="E43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1, LEN(A1) - FIND(" ", A1))</f>
+        <v xml:space="preserve">Ross </v>
+      </c>
+      <c r="C1" t="str">
+        <f>LEFT(A1,FIND(" ",A1,1)-1)</f>
+        <v>Robert</v>
+      </c>
+      <c r="D1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B9" si="0">RIGHT(A2, LEN(A2) - FIND(" ", A2))</f>
+        <v xml:space="preserve">Carns </v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C9" si="1">LEFT(A2,FIND(" ",A2,1)-1)</f>
+        <v>Phil</v>
+      </c>
+      <c r="D2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Kimpe </v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>Dries</v>
+      </c>
+      <c r="D3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Narasimha </v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Reddy</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Shen </v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Haiying</v>
+      </c>
+      <c r="D5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Brooks </v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Richard</v>
+      </c>
+      <c r="D6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Long </v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Darrell</v>
+      </c>
+      <c r="D7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Curry </v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Matthew</v>
+      </c>
+      <c r="D8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Skjellum </v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Anthony</v>
+      </c>
+      <c r="D9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D23" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D24" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D25" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D29" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D33" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D34" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D35" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D37" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D38" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D39" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D40" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D41" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D43" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D44" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" t="s">
+        <v>736</v>
+      </c>
+      <c r="B10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C11" t="s">
+        <v>741</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" t="s">
+        <v>743</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>745</v>
+      </c>
+      <c r="C15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>747</v>
+      </c>
+      <c r="C16" t="s">
+        <v>748</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>749</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" t="s">
+        <v>750</v>
+      </c>
+      <c r="B18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C18" t="s">
+        <v>752</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1,LEN(A1)-FIND(" ",A1))</f>
+        <v>Arpaci-Dusseau</v>
+      </c>
+      <c r="C1" t="str">
+        <f>LEFT(A1,FIND(" ",A1,1)-1)</f>
+        <v>Rezmi</v>
+      </c>
+      <c r="D1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B44" si="0">RIGHT(A2,LEN(A2)-FIND(" ",A2))</f>
+        <v>V. Bangalore</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C44" si="1">LEFT(A2,FIND(" ",A2,1)-1)</f>
+        <v>Purushotham</v>
+      </c>
+      <c r="D2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Barrett</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>Brian</v>
+      </c>
+      <c r="D3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Barrett</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Richard</v>
+      </c>
+      <c r="D4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Brandt</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>James</v>
+      </c>
+      <c r="D5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Brightwell</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ron</v>
+      </c>
+      <c r="D6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Carns</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Phil</v>
+      </c>
+      <c r="D7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Danielson</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Geoff</v>
+      </c>
+      <c r="D8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>DeBardeleben</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Nathan</v>
+      </c>
+      <c r="D9" t="s">
+        <v>766</v>
+      </c>
+      <c r="E9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>767</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Fabian</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Nathan</v>
+      </c>
+      <c r="D10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ferreira</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Kurt</v>
+      </c>
+      <c r="D11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Gemmill</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Jill</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>771</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gentile</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Ann</v>
+      </c>
+      <c r="D13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Harms</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin</v>
+      </c>
+      <c r="D14" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>773</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Harris</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Jay</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Hemmert</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Scott</v>
+      </c>
+      <c r="D16" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Kelly</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Suzanne</v>
+      </c>
+      <c r="D17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>776</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Kimpe</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Dries</v>
+      </c>
+      <c r="D18" t="s">
+        <v>538</v>
+      </c>
+      <c r="E18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>777</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Klundt</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Ruth</v>
+      </c>
+      <c r="D19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>778</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Kroeger</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas</v>
+      </c>
+      <c r="D20" t="s">
+        <v>540</v>
+      </c>
+      <c r="E20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>779</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Laros III</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>James</v>
+      </c>
+      <c r="D21" t="s">
+        <v>540</v>
+      </c>
+      <c r="E21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>780</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Leung</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Vitus</v>
+      </c>
+      <c r="D22" t="s">
+        <v>540</v>
+      </c>
+      <c r="E22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>781</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Levenhagen</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael</v>
+      </c>
+      <c r="D23" t="s">
+        <v>540</v>
+      </c>
+      <c r="E23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>782</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Lofstead</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Gerald</v>
+      </c>
+      <c r="D24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E24" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>783</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Darrell</v>
+      </c>
+      <c r="D25" t="s">
+        <v>784</v>
+      </c>
+      <c r="E25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Maltzahn</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Carlos</v>
+      </c>
+      <c r="D26" t="s">
+        <v>784</v>
+      </c>
+      <c r="E26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>785</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Miller</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethan</v>
+      </c>
+      <c r="D27" t="s">
+        <v>784</v>
+      </c>
+      <c r="E27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>786</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Moreland</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Kenneth</v>
+      </c>
+      <c r="D28" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>577</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Oldfield</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>Ron</v>
+      </c>
+      <c r="D29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>787</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Pedretti</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin</v>
+      </c>
+      <c r="D30" t="s">
+        <v>540</v>
+      </c>
+      <c r="E30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>788</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>R. Resnick</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>David</v>
+      </c>
+      <c r="D31" t="s">
+        <v>540</v>
+      </c>
+      <c r="E31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ricci</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>Robert</v>
+      </c>
+      <c r="D32" t="s">
+        <v>790</v>
+      </c>
+      <c r="E32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>791</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Rodrigues</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>Arun</v>
+      </c>
+      <c r="D33" t="s">
+        <v>540</v>
+      </c>
+      <c r="E33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>792</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ross</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>Robert</v>
+      </c>
+      <c r="D34" t="s">
+        <v>538</v>
+      </c>
+      <c r="E34" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>793</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Shen</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Haiying</v>
+      </c>
+      <c r="D35" t="s">
+        <v>770</v>
+      </c>
+      <c r="E35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>794</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Skjellum</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Anthony</v>
+      </c>
+      <c r="D36" t="s">
+        <v>597</v>
+      </c>
+      <c r="E36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>796</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weibin</v>
+      </c>
+      <c r="D37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>797</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Zhiwei</v>
+      </c>
+      <c r="D38" t="s">
+        <v>798</v>
+      </c>
+      <c r="E38" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>799</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Thompson</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>David</v>
+      </c>
+      <c r="D39" t="s">
+        <v>540</v>
+      </c>
+      <c r="E39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>800</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Tucker</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Tom</v>
+      </c>
+      <c r="D40" t="s">
+        <v>540</v>
+      </c>
+      <c r="E40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>801</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Van Dyke</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>John</v>
+      </c>
+      <c r="D41" t="s">
+        <v>540</v>
+      </c>
+      <c r="E41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>802</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Vaughan</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Courtenay</v>
+      </c>
+      <c r="D42" t="s">
+        <v>540</v>
+      </c>
+      <c r="E42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>803</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Ward</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Lee</v>
+      </c>
+      <c r="D43" t="s">
+        <v>540</v>
+      </c>
+      <c r="E43" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>804</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Wheeler</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Kyle</v>
+      </c>
+      <c r="D44" t="s">
+        <v>805</v>
+      </c>
+      <c r="E44" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>